--- a/backend/app/static/meeting_1_report.xlsx
+++ b/backend/app/static/meeting_1_report.xlsx
@@ -55,10 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,65 +431,83 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>first_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>last_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>department</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>designation</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Shady</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Kip</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>shadykipkorir@gmail.com</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>0724606690</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Software Dev</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Developer</t>
         </is>
       </c>
     </row>

--- a/backend/app/static/meeting_1_report.xlsx
+++ b/backend/app/static/meeting_1_report.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,16 +57,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,76 +445,156 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>first_name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>last_name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>designation</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>designation</t>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>meeting_id</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>updated_on</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Shady</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Kip</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>shadykipkorir@gmail.com</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>0724606690</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Software Dev</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Developer</t>
-        </is>
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Mohammed</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>KWS</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>ICT Officer</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>ali.mohamed@kws.co.ke</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>0726580246</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>45557.00960648148</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>45557.00960648148</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Ratemo</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>eCitizen</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>HR Officer</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>ratemo@ecitizen.go.ke</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>0726580246</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>45557.01045138889</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>45557.01045138889</v>
       </c>
     </row>
   </sheetData>
